--- a/Code/Results/Cases/Case_1_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8700182720669716</v>
+        <v>0.6520907927893234</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1181594257614478</v>
+        <v>0.2482944384878252</v>
       </c>
       <c r="E2">
-        <v>0.08170006326693446</v>
+        <v>0.2198117960886918</v>
       </c>
       <c r="F2">
-        <v>0.5429938679168558</v>
+        <v>1.233542482145339</v>
       </c>
       <c r="G2">
-        <v>0.3023906044676679</v>
+        <v>0.6194693546341625</v>
       </c>
       <c r="H2">
-        <v>0.2846071837684292</v>
+        <v>0.7520296737587699</v>
       </c>
       <c r="I2">
-        <v>0.3966525098475486</v>
+        <v>1.028497087521988</v>
       </c>
       <c r="J2">
-        <v>0.1034665158813757</v>
+        <v>0.2581512450367225</v>
       </c>
       <c r="K2">
-        <v>1.395034329256305</v>
+        <v>0.4286591866521974</v>
       </c>
       <c r="L2">
-        <v>0.3167016044145754</v>
+        <v>0.1905818721582762</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.18480889554823</v>
+        <v>2.728473077746202</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7617320589920098</v>
+        <v>0.6211635282272709</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1123647925652733</v>
+        <v>0.2479319606418215</v>
       </c>
       <c r="E3">
-        <v>0.08323061704392298</v>
+        <v>0.2213725977103556</v>
       </c>
       <c r="F3">
-        <v>0.5381509600450443</v>
+        <v>1.241420756502158</v>
       </c>
       <c r="G3">
-        <v>0.2988506957599952</v>
+        <v>0.6241270415847069</v>
       </c>
       <c r="H3">
-        <v>0.2884897377159703</v>
+        <v>0.7578060948917127</v>
       </c>
       <c r="I3">
-        <v>0.4164306434021867</v>
+        <v>1.04073717005058</v>
       </c>
       <c r="J3">
-        <v>0.1071052307591527</v>
+        <v>0.260297697688222</v>
       </c>
       <c r="K3">
-        <v>1.228759663563864</v>
+        <v>0.3742941151593868</v>
       </c>
       <c r="L3">
-        <v>0.2761144053537947</v>
+        <v>0.1788356043501125</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.185096966682281</v>
+        <v>2.750199244594697</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6953835705262463</v>
+        <v>0.6023144925537451</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1089098368814518</v>
+        <v>0.2477928448671776</v>
       </c>
       <c r="E4">
-        <v>0.08426622166139008</v>
+        <v>0.2224016038801571</v>
       </c>
       <c r="F4">
-        <v>0.5361842227750628</v>
+        <v>1.246868195792715</v>
       </c>
       <c r="G4">
-        <v>0.2974081552367309</v>
+        <v>0.6273740564251398</v>
       </c>
       <c r="H4">
-        <v>0.2913394415587192</v>
+        <v>0.7616541696155963</v>
       </c>
       <c r="I4">
-        <v>0.4293436942374189</v>
+        <v>1.048710426779381</v>
       </c>
       <c r="J4">
-        <v>0.1094479863967977</v>
+        <v>0.2616906733116013</v>
       </c>
       <c r="K4">
-        <v>1.126489857229842</v>
+        <v>0.3407701309234596</v>
       </c>
       <c r="L4">
-        <v>0.2512343943460564</v>
+        <v>0.1716567210223587</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.18779005266228</v>
+        <v>2.764982393132996</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6683746785562334</v>
+        <v>0.5946693865294037</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1075270823893675</v>
+        <v>0.2477572156611743</v>
       </c>
       <c r="E5">
-        <v>0.08471201452183852</v>
+        <v>0.222838734734335</v>
       </c>
       <c r="F5">
-        <v>0.535627394072236</v>
+        <v>1.249241635682559</v>
       </c>
       <c r="G5">
-        <v>0.2969966607403478</v>
+        <v>0.6287945973221767</v>
       </c>
       <c r="H5">
-        <v>0.292614603950895</v>
+        <v>0.7632981393923615</v>
       </c>
       <c r="I5">
-        <v>0.4347948998421884</v>
+        <v>1.052074759282116</v>
       </c>
       <c r="J5">
-        <v>0.1104297407502196</v>
+        <v>0.2622772226722092</v>
       </c>
       <c r="K5">
-        <v>1.08476193022554</v>
+        <v>0.3270736975882187</v>
       </c>
       <c r="L5">
-        <v>0.241103180037598</v>
+        <v>0.168739892989862</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.189497611888285</v>
+        <v>2.771369698015519</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6638914213118881</v>
+        <v>0.5934021196827644</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1072989765144783</v>
+        <v>0.2477525738249469</v>
       </c>
       <c r="E6">
-        <v>0.08478746479433052</v>
+        <v>0.222912396161604</v>
       </c>
       <c r="F6">
-        <v>0.5355494649562473</v>
+        <v>1.249645022505696</v>
       </c>
       <c r="G6">
-        <v>0.2969387713171017</v>
+        <v>0.6290363570362558</v>
       </c>
       <c r="H6">
-        <v>0.2928331297356692</v>
+        <v>0.763575702607568</v>
       </c>
       <c r="I6">
-        <v>0.4357113601537552</v>
+        <v>1.052640361292578</v>
       </c>
       <c r="J6">
-        <v>0.1105943879806677</v>
+        <v>0.2623757611656149</v>
       </c>
       <c r="K6">
-        <v>1.077829672709527</v>
+        <v>0.3247973217783056</v>
       </c>
       <c r="L6">
-        <v>0.2394212838038356</v>
+        <v>0.1682560837326008</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.189817355791845</v>
+        <v>2.772452236928785</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6950192114241815</v>
+        <v>0.6022112411487512</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1088910876028777</v>
+        <v>0.2477922789774212</v>
       </c>
       <c r="E7">
-        <v>0.08427213793334598</v>
+        <v>0.2224074270545007</v>
       </c>
       <c r="F7">
-        <v>0.536175733718558</v>
+        <v>1.246899582874619</v>
       </c>
       <c r="G7">
-        <v>0.2974019012671789</v>
+        <v>0.6273928201493888</v>
       </c>
       <c r="H7">
-        <v>0.2913561819168393</v>
+        <v>0.7616760335593611</v>
       </c>
       <c r="I7">
-        <v>0.429416451396321</v>
+        <v>1.048755332976883</v>
       </c>
       <c r="J7">
-        <v>0.1094611174134861</v>
+        <v>0.261698507154512</v>
       </c>
       <c r="K7">
-        <v>1.125927320873984</v>
+        <v>0.3405855570107974</v>
       </c>
       <c r="L7">
-        <v>0.2510977338905462</v>
+        <v>0.1716173484264658</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.187810640320677</v>
+        <v>2.765067064379963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8326481562724268</v>
+        <v>0.6413983449638749</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1161396165436486</v>
+        <v>0.2481521829893509</v>
       </c>
       <c r="E8">
-        <v>0.08220770911005104</v>
+        <v>0.220335313003698</v>
       </c>
       <c r="F8">
-        <v>0.5411098162398886</v>
+        <v>1.236132357099066</v>
       </c>
       <c r="G8">
-        <v>0.3010137448127566</v>
+        <v>0.6209949646997828</v>
       </c>
       <c r="H8">
-        <v>0.2858472173282891</v>
+        <v>0.753958888976527</v>
       </c>
       <c r="I8">
-        <v>0.4033096769040441</v>
+        <v>1.032622482899679</v>
       </c>
       <c r="J8">
-        <v>0.1046984659748164</v>
+        <v>0.2588757843971425</v>
       </c>
       <c r="K8">
-        <v>1.337734571949142</v>
+        <v>0.4099444839504542</v>
       </c>
       <c r="L8">
-        <v>0.3026970458828231</v>
+        <v>0.1865249686627664</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.184372080160685</v>
+        <v>2.735664813792283</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.103969296975009</v>
+        <v>0.7193309803729449</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1312059897136066</v>
+        <v>0.2495168647651411</v>
       </c>
       <c r="E9">
-        <v>0.0789348445753113</v>
+        <v>0.2168311633227749</v>
       </c>
       <c r="F9">
-        <v>0.5591775329184259</v>
+        <v>1.219853501503373</v>
       </c>
       <c r="G9">
-        <v>0.3142485891145341</v>
+        <v>0.6115213127661718</v>
       </c>
       <c r="H9">
-        <v>0.2788930340516131</v>
+        <v>0.7412131466291711</v>
       </c>
       <c r="I9">
-        <v>0.3584216905321522</v>
+        <v>1.004615871092394</v>
       </c>
       <c r="J9">
-        <v>0.09623122674777879</v>
+        <v>0.2539344891214366</v>
       </c>
       <c r="K9">
-        <v>1.752083252269955</v>
+        <v>0.5447811583243833</v>
       </c>
       <c r="L9">
-        <v>0.4043372384177815</v>
+        <v>0.2160148064047007</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.198661307645267</v>
+        <v>2.68945238869415</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.304676075396713</v>
+        <v>0.7772198421080816</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1428466537509365</v>
+        <v>0.2509172165169105</v>
       </c>
       <c r="E10">
-        <v>0.07702457132637797</v>
+        <v>0.2145956051178679</v>
       </c>
       <c r="F10">
-        <v>0.5781558989773643</v>
+        <v>1.210834499383687</v>
       </c>
       <c r="G10">
-        <v>0.3282361306059443</v>
+        <v>0.6064352264416044</v>
       </c>
       <c r="H10">
-        <v>0.2763530617812435</v>
+        <v>0.733299869042348</v>
       </c>
       <c r="I10">
-        <v>0.3295807911563529</v>
+        <v>0.9862482508135724</v>
       </c>
       <c r="J10">
-        <v>0.09055737038606373</v>
+        <v>0.2506642748290474</v>
       </c>
       <c r="K10">
-        <v>2.056509527806242</v>
+        <v>0.643089032554002</v>
       </c>
       <c r="L10">
-        <v>0.4794895556987768</v>
+        <v>0.2378275139620882</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.223537533522077</v>
+        <v>2.662470788011561</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.396397634983515</v>
+        <v>0.803686011692605</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1482785054789559</v>
+        <v>0.2516398139310354</v>
       </c>
       <c r="E11">
-        <v>0.07626781672656691</v>
+        <v>0.213651765584844</v>
       </c>
       <c r="F11">
-        <v>0.588165576992246</v>
+        <v>1.207368740093116</v>
       </c>
       <c r="G11">
-        <v>0.3356454501453001</v>
+        <v>0.6045286680850523</v>
       </c>
       <c r="H11">
-        <v>0.2758076768386672</v>
+        <v>0.7300140469954925</v>
       </c>
       <c r="I11">
-        <v>0.3174268996366045</v>
+        <v>0.978371102579402</v>
       </c>
       <c r="J11">
-        <v>0.08809845801657396</v>
+        <v>0.2492543474571168</v>
       </c>
       <c r="K11">
-        <v>2.195150758701175</v>
+        <v>0.6876397050553749</v>
       </c>
       <c r="L11">
-        <v>0.5138297866386949</v>
+        <v>0.2477806022719875</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.238340690485984</v>
+        <v>2.651708446423342</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.43120052593693</v>
+        <v>0.8137264304077974</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1503560670920763</v>
+        <v>0.2519256730413133</v>
       </c>
       <c r="E12">
-        <v>0.07599782598839511</v>
+        <v>0.2133048408263836</v>
       </c>
       <c r="F12">
-        <v>0.5921659950431177</v>
+        <v>1.2061478272418</v>
       </c>
       <c r="G12">
-        <v>0.3386122443332766</v>
+        <v>0.6038652633718726</v>
       </c>
       <c r="H12">
-        <v>0.2756935142379717</v>
+        <v>0.728814866977217</v>
       </c>
       <c r="I12">
-        <v>0.3129694877814035</v>
+        <v>0.9754569715399963</v>
       </c>
       <c r="J12">
-        <v>0.08718521194681716</v>
+        <v>0.2487315884625394</v>
       </c>
       <c r="K12">
-        <v>2.247685743317959</v>
+        <v>0.7044845654399978</v>
       </c>
       <c r="L12">
-        <v>0.5268596579188483</v>
+        <v>0.2515537380197088</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.244479895740113</v>
+        <v>2.647850296510427</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.423701829754378</v>
+        <v>0.8115632468017395</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1499076924189211</v>
+        <v>0.2518635655996917</v>
       </c>
       <c r="E13">
-        <v>0.07605522895294392</v>
+        <v>0.2133790913354954</v>
       </c>
       <c r="F13">
-        <v>0.5912948954543751</v>
+        <v>1.206406705152638</v>
       </c>
       <c r="G13">
-        <v>0.337965954223165</v>
+        <v>0.6040055342820452</v>
       </c>
       <c r="H13">
-        <v>0.275713916502994</v>
+        <v>0.7290711274166597</v>
       </c>
       <c r="I13">
-        <v>0.31392292152211</v>
+        <v>0.9760815233027937</v>
       </c>
       <c r="J13">
-        <v>0.0873810947987978</v>
+        <v>0.2488436784609751</v>
       </c>
       <c r="K13">
-        <v>2.23636965513478</v>
+        <v>0.7008578748136358</v>
       </c>
       <c r="L13">
-        <v>0.5240522209456344</v>
+        <v>0.2507409466075217</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.243133444460113</v>
+        <v>2.648671554085723</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.399259430638978</v>
+        <v>0.8045116814826656</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1484490081091963</v>
+        <v>0.2516630871264312</v>
       </c>
       <c r="E14">
-        <v>0.07624526965290812</v>
+        <v>0.2136230138699631</v>
       </c>
       <c r="F14">
-        <v>0.5884904141149789</v>
+        <v>1.207266461790461</v>
       </c>
       <c r="G14">
-        <v>0.3358862396002067</v>
+        <v>0.6044729154701258</v>
       </c>
       <c r="H14">
-        <v>0.275796405966922</v>
+        <v>0.7299144864089371</v>
       </c>
       <c r="I14">
-        <v>0.3170572435078594</v>
+        <v>0.978129977019357</v>
       </c>
       <c r="J14">
-        <v>0.08802296424127881</v>
+        <v>0.2492111164396476</v>
       </c>
       <c r="K14">
-        <v>2.199472078393455</v>
+        <v>0.6890260592011828</v>
       </c>
       <c r="L14">
-        <v>0.5149012178339234</v>
+        <v>0.2480909393431148</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.238834881913732</v>
+        <v>2.651386679186544</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.384297159962017</v>
+        <v>0.8001947488686767</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1475582405054041</v>
+        <v>0.2515418783032004</v>
       </c>
       <c r="E15">
-        <v>0.07636384701203092</v>
+        <v>0.2137737883016229</v>
       </c>
       <c r="F15">
-        <v>0.5868003024248409</v>
+        <v>1.207804999649682</v>
       </c>
       <c r="G15">
-        <v>0.3346336522136255</v>
+        <v>0.6047668278362224</v>
       </c>
       <c r="H15">
-        <v>0.2758591038978651</v>
+        <v>0.730436938385246</v>
       </c>
       <c r="I15">
-        <v>0.3189961764618605</v>
+        <v>0.979393670019121</v>
       </c>
       <c r="J15">
-        <v>0.08841846760745442</v>
+        <v>0.2494376341300166</v>
       </c>
       <c r="K15">
-        <v>2.176876122210189</v>
+        <v>0.6817753767460033</v>
       </c>
       <c r="L15">
-        <v>0.5092994685895746</v>
+        <v>0.2464682621116197</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.236272362471425</v>
+        <v>2.653078070499447</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.298691099938935</v>
+        <v>0.7754928115406585</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.142494500820078</v>
+        <v>0.2508717083226912</v>
       </c>
       <c r="E16">
-        <v>0.07707632236641437</v>
+        <v>0.2146587562917013</v>
       </c>
       <c r="F16">
-        <v>0.5775304529896843</v>
+        <v>1.211073804262234</v>
       </c>
       <c r="G16">
-        <v>0.327773859492936</v>
+        <v>0.6065680189618874</v>
       </c>
       <c r="H16">
-        <v>0.2764013700417252</v>
+        <v>0.7335209180519726</v>
       </c>
       <c r="I16">
-        <v>0.3303950282587191</v>
+        <v>0.9867726657520564</v>
       </c>
       <c r="J16">
-        <v>0.09072055159290018</v>
+        <v>0.2507579785026652</v>
       </c>
       <c r="K16">
-        <v>2.047453154418605</v>
+        <v>0.6401740286704865</v>
       </c>
       <c r="L16">
-        <v>0.4772487533267622</v>
+        <v>0.2371776460446426</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.222642983021558</v>
+        <v>2.663204546256452</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.246288560620911</v>
+        <v>0.7603723000549678</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1394237150637139</v>
+        <v>0.2504824420212799</v>
       </c>
       <c r="E17">
-        <v>0.07754245390731818</v>
+        <v>0.2152203645766022</v>
       </c>
       <c r="F17">
-        <v>0.5722045719781121</v>
+        <v>1.213242191250274</v>
       </c>
       <c r="G17">
-        <v>0.3238409232364958</v>
+        <v>0.6077772833072217</v>
       </c>
       <c r="H17">
-        <v>0.2768934969035897</v>
+        <v>0.735493212524986</v>
       </c>
       <c r="I17">
-        <v>0.3376395010120241</v>
+        <v>0.9914219526037833</v>
       </c>
       <c r="J17">
-        <v>0.09216431873018444</v>
+        <v>0.2515878526914826</v>
       </c>
       <c r="K17">
-        <v>1.968104691611074</v>
+        <v>0.6146086367992041</v>
       </c>
       <c r="L17">
-        <v>0.4576286148404165</v>
+        <v>0.2314857558075403</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.21519715663058</v>
+        <v>2.669803951523647</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.216186831478524</v>
+        <v>0.7516878738032915</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1376702601478996</v>
+        <v>0.2502666052751934</v>
       </c>
       <c r="E18">
-        <v>0.077821097588469</v>
+        <v>0.2155502715949265</v>
       </c>
       <c r="F18">
-        <v>0.5692700503753301</v>
+        <v>1.214549356948829</v>
       </c>
       <c r="G18">
-        <v>0.3216766167736083</v>
+        <v>0.6085111396547163</v>
       </c>
       <c r="H18">
-        <v>0.2772336835597784</v>
+        <v>0.7366571797565697</v>
       </c>
       <c r="I18">
-        <v>0.3418968688269128</v>
+        <v>0.9941411272115062</v>
       </c>
       <c r="J18">
-        <v>0.09300621273948689</v>
+        <v>0.2520724902233324</v>
       </c>
       <c r="K18">
-        <v>1.922479479474703</v>
+        <v>0.599888154444443</v>
       </c>
       <c r="L18">
-        <v>0.4463577844234408</v>
+        <v>0.2282148054218851</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.21124067616087</v>
+        <v>2.673742049718427</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.206001287269743</v>
+        <v>0.7487496450218032</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1370787353509328</v>
+        <v>0.2501949131609038</v>
       </c>
       <c r="E19">
-        <v>0.0779172383499116</v>
+        <v>0.2156631557903417</v>
       </c>
       <c r="F19">
-        <v>0.5682982344709302</v>
+        <v>1.215002243473592</v>
       </c>
       <c r="G19">
-        <v>0.320960307047585</v>
+        <v>0.6087661914937499</v>
       </c>
       <c r="H19">
-        <v>0.2773585399457801</v>
+        <v>0.7370563570579804</v>
       </c>
       <c r="I19">
-        <v>0.3433537100261876</v>
+        <v>0.9950695270558292</v>
       </c>
       <c r="J19">
-        <v>0.09329322515856242</v>
+        <v>0.2522378374221208</v>
       </c>
       <c r="K19">
-        <v>1.907033603919871</v>
+        <v>0.5949013457017713</v>
       </c>
       <c r="L19">
-        <v>0.4425439896132275</v>
+        <v>0.2271078191520672</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.209956149111648</v>
+        <v>2.675099863444387</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.251862814087985</v>
+        <v>0.7619806169536787</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1397492756074001</v>
+        <v>0.2505230465775128</v>
       </c>
       <c r="E20">
-        <v>0.07749173975877888</v>
+        <v>0.21515986807551</v>
       </c>
       <c r="F20">
-        <v>0.5727581072916124</v>
+        <v>1.213005157197912</v>
       </c>
       <c r="G20">
-        <v>0.324249392890664</v>
+        <v>0.6076445889603335</v>
       </c>
       <c r="H20">
-        <v>0.276835163888677</v>
+        <v>0.7352801999412719</v>
       </c>
       <c r="I20">
-        <v>0.3368589009830387</v>
+        <v>0.9909223679891106</v>
       </c>
       <c r="J20">
-        <v>0.09200943708422063</v>
+        <v>0.2514987541839508</v>
       </c>
       <c r="K20">
-        <v>1.976549944918844</v>
+        <v>0.617331774330637</v>
       </c>
       <c r="L20">
-        <v>0.4597157193268941</v>
+        <v>0.2320913715778801</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.21595579407682</v>
+        <v>2.669086707078165</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.406436777680995</v>
+        <v>0.8065824077760055</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1488768905942521</v>
+        <v>0.2517216412921073</v>
       </c>
       <c r="E21">
-        <v>0.07618899665517453</v>
+        <v>0.213551083529488</v>
       </c>
       <c r="F21">
-        <v>0.5893083601595208</v>
+        <v>1.207011448151711</v>
       </c>
       <c r="G21">
-        <v>0.3364926439513098</v>
+        <v>0.6043340446000016</v>
       </c>
       <c r="H21">
-        <v>0.2757696317665932</v>
+        <v>0.7296655481810177</v>
       </c>
       <c r="I21">
-        <v>0.3161326315978013</v>
+        <v>0.9775264301234223</v>
       </c>
       <c r="J21">
-        <v>0.0878339434137097</v>
+        <v>0.2491028885884727</v>
       </c>
       <c r="K21">
-        <v>2.210308752292519</v>
+        <v>0.692502051053367</v>
       </c>
       <c r="L21">
-        <v>0.5175883515040169</v>
+        <v>0.2488692009735161</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.240082727025793</v>
+        <v>2.650583283812182</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.507872343107749</v>
+        <v>0.8358383069926276</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1549631158696911</v>
+        <v>0.2525762253870028</v>
       </c>
       <c r="E22">
-        <v>0.07543441217247349</v>
+        <v>0.2125607615525169</v>
       </c>
       <c r="F22">
-        <v>0.6013548826122559</v>
+        <v>1.20362746433716</v>
       </c>
       <c r="G22">
-        <v>0.3454383890912851</v>
+        <v>0.6025117990455016</v>
       </c>
       <c r="H22">
-        <v>0.2756139627562959</v>
+        <v>0.7262588375469505</v>
       </c>
       <c r="I22">
-        <v>0.3034350751712189</v>
+        <v>0.9691722709735533</v>
       </c>
       <c r="J22">
-        <v>0.0852094592121343</v>
+        <v>0.24760203079161</v>
       </c>
       <c r="K22">
-        <v>2.363291349160136</v>
+        <v>0.7414809788035086</v>
       </c>
       <c r="L22">
-        <v>0.5555648781992204</v>
+        <v>0.2598583643448364</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.258977470128826</v>
+        <v>2.63975687356799</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.453693159950888</v>
+        <v>0.8202144302092904</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1517033795109626</v>
+        <v>0.2521136256087146</v>
       </c>
       <c r="E23">
-        <v>0.07582813847572112</v>
+        <v>0.2130837327961466</v>
       </c>
       <c r="F23">
-        <v>0.5948087148697283</v>
+        <v>1.205384803901453</v>
       </c>
       <c r="G23">
-        <v>0.3405738287538469</v>
+        <v>0.6034531215312882</v>
       </c>
       <c r="H23">
-        <v>0.2756459644794944</v>
+        <v>0.7280530372785563</v>
       </c>
       <c r="I23">
-        <v>0.3101322829024244</v>
+        <v>0.9735943692660634</v>
       </c>
       <c r="J23">
-        <v>0.08660052798938217</v>
+        <v>0.2483971293603705</v>
       </c>
       <c r="K23">
-        <v>2.281618420148021</v>
+        <v>0.7153540025617815</v>
       </c>
       <c r="L23">
-        <v>0.535280673097887</v>
+        <v>0.2539911387278835</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.24859578640644</v>
+        <v>2.64541925742688</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.249342616361503</v>
+        <v>0.7612534701715958</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1396020524445163</v>
+        <v>0.2505046644649411</v>
       </c>
       <c r="E24">
-        <v>0.0775146344594102</v>
+        <v>0.2151871966412617</v>
       </c>
       <c r="F24">
-        <v>0.5725074580626739</v>
+        <v>1.21311213173616</v>
       </c>
       <c r="G24">
-        <v>0.3240644230710217</v>
+        <v>0.607704459734407</v>
       </c>
       <c r="H24">
-        <v>0.2768613582513595</v>
+        <v>0.7353764092633952</v>
       </c>
       <c r="I24">
-        <v>0.3372115228336483</v>
+        <v>0.991148086166266</v>
       </c>
       <c r="J24">
-        <v>0.0920794221812046</v>
+        <v>0.2515390121568286</v>
       </c>
       <c r="K24">
-        <v>1.972731867745466</v>
+        <v>0.6161007141633661</v>
       </c>
       <c r="L24">
-        <v>0.4587721115005081</v>
+        <v>0.2318175683299728</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.215611806611477</v>
+        <v>2.669410524700893</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.030367296266121</v>
+        <v>0.698134976763896</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1270337099415499</v>
+        <v>0.2490775518988286</v>
       </c>
       <c r="E25">
-        <v>0.0797350509004886</v>
+        <v>0.217719463055813</v>
       </c>
       <c r="F25">
-        <v>0.5533324711792815</v>
+        <v>1.223740381939351</v>
       </c>
       <c r="G25">
-        <v>0.3099582564885708</v>
+        <v>0.6137551337574649</v>
       </c>
       <c r="H25">
-        <v>0.2803400041300179</v>
+        <v>0.7444060692869812</v>
       </c>
       <c r="I25">
-        <v>0.3698604451327885</v>
+        <v>1.011804217279927</v>
       </c>
       <c r="J25">
-        <v>0.09842691951620564</v>
+        <v>0.2552078498623044</v>
       </c>
       <c r="K25">
-        <v>1.640037395654787</v>
+        <v>0.5084342821591861</v>
       </c>
       <c r="L25">
-        <v>0.3767723236236122</v>
+        <v>0.208010603399913</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.192388483918563</v>
+        <v>2.700729463117085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6520907927893234</v>
+        <v>0.8700182720670853</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2482944384878252</v>
+        <v>0.1181594257614478</v>
       </c>
       <c r="E2">
-        <v>0.2198117960886918</v>
+        <v>0.08170006326692203</v>
       </c>
       <c r="F2">
-        <v>1.233542482145339</v>
+        <v>0.5429938679168202</v>
       </c>
       <c r="G2">
-        <v>0.6194693546341625</v>
+        <v>0.302390604467675</v>
       </c>
       <c r="H2">
-        <v>0.7520296737587699</v>
+        <v>0.2846071837684292</v>
       </c>
       <c r="I2">
-        <v>1.028497087521988</v>
+        <v>0.3966525098475486</v>
       </c>
       <c r="J2">
-        <v>0.2581512450367225</v>
+        <v>0.1034665158813942</v>
       </c>
       <c r="K2">
-        <v>0.4286591866521974</v>
+        <v>1.395034329256305</v>
       </c>
       <c r="L2">
-        <v>0.1905818721582762</v>
+        <v>0.3167016044144475</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.728473077746202</v>
+        <v>1.18480889554823</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6211635282272709</v>
+        <v>0.7617320589920098</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2479319606418215</v>
+        <v>0.1123647925652733</v>
       </c>
       <c r="E3">
-        <v>0.2213725977103556</v>
+        <v>0.08323061704392476</v>
       </c>
       <c r="F3">
-        <v>1.241420756502158</v>
+        <v>0.5381509600450372</v>
       </c>
       <c r="G3">
-        <v>0.6241270415847069</v>
+        <v>0.2988506957600521</v>
       </c>
       <c r="H3">
-        <v>0.7578060948917127</v>
+        <v>0.2884897377160911</v>
       </c>
       <c r="I3">
-        <v>1.04073717005058</v>
+        <v>0.4164306434021761</v>
       </c>
       <c r="J3">
-        <v>0.260297697688222</v>
+        <v>0.1071052307591195</v>
       </c>
       <c r="K3">
-        <v>0.3742941151593868</v>
+        <v>1.22875966356375</v>
       </c>
       <c r="L3">
-        <v>0.1788356043501125</v>
+        <v>0.2761144053537805</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.750199244594697</v>
+        <v>1.185096966682281</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6023144925537451</v>
+        <v>0.69538357052636</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2477928448671776</v>
+        <v>0.1089098368815513</v>
       </c>
       <c r="E4">
-        <v>0.2224016038801571</v>
+        <v>0.08426622166135012</v>
       </c>
       <c r="F4">
-        <v>1.246868195792715</v>
+        <v>0.5361842227750699</v>
       </c>
       <c r="G4">
-        <v>0.6273740564251398</v>
+        <v>0.2974081552367949</v>
       </c>
       <c r="H4">
-        <v>0.7616541696155963</v>
+        <v>0.2913394415588328</v>
       </c>
       <c r="I4">
-        <v>1.048710426779381</v>
+        <v>0.4293436942374402</v>
       </c>
       <c r="J4">
-        <v>0.2616906733116013</v>
+        <v>0.1094479863968091</v>
       </c>
       <c r="K4">
-        <v>0.3407701309234596</v>
+        <v>1.126489857229842</v>
       </c>
       <c r="L4">
-        <v>0.1716567210223587</v>
+        <v>0.2512343943459143</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.764982393132996</v>
+        <v>1.18779005266228</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5946693865294037</v>
+        <v>0.668374678556205</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2477572156611743</v>
+        <v>0.107527082389403</v>
       </c>
       <c r="E5">
-        <v>0.222838734734335</v>
+        <v>0.08471201452187316</v>
       </c>
       <c r="F5">
-        <v>1.249241635682559</v>
+        <v>0.5356273940721934</v>
       </c>
       <c r="G5">
-        <v>0.6287945973221767</v>
+        <v>0.2969966607402696</v>
       </c>
       <c r="H5">
-        <v>0.7632981393923615</v>
+        <v>0.2926146039510016</v>
       </c>
       <c r="I5">
-        <v>1.052074759282116</v>
+        <v>0.4347948998421813</v>
       </c>
       <c r="J5">
-        <v>0.2622772226722092</v>
+        <v>0.110429740750361</v>
       </c>
       <c r="K5">
-        <v>0.3270736975882187</v>
+        <v>1.084761930225625</v>
       </c>
       <c r="L5">
-        <v>0.168739892989862</v>
+        <v>0.2411031800375412</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.771369698015519</v>
+        <v>1.189497611888257</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5934021196827644</v>
+        <v>0.6638914213119449</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2477525738249469</v>
+        <v>0.1072989765144001</v>
       </c>
       <c r="E6">
-        <v>0.222912396161604</v>
+        <v>0.08478746479432875</v>
       </c>
       <c r="F6">
-        <v>1.249645022505696</v>
+        <v>0.5355494649562189</v>
       </c>
       <c r="G6">
-        <v>0.6290363570362558</v>
+        <v>0.2969387713171443</v>
       </c>
       <c r="H6">
-        <v>0.763575702607568</v>
+        <v>0.2928331297356763</v>
       </c>
       <c r="I6">
-        <v>1.052640361292578</v>
+        <v>0.4357113601537765</v>
       </c>
       <c r="J6">
-        <v>0.2623757611656149</v>
+        <v>0.1105943879806252</v>
       </c>
       <c r="K6">
-        <v>0.3247973217783056</v>
+        <v>1.077829672709527</v>
       </c>
       <c r="L6">
-        <v>0.1682560837326008</v>
+        <v>0.2394212838039351</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.772452236928785</v>
+        <v>1.189817355791831</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6022112411487512</v>
+        <v>0.6950192114242952</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2477922789774212</v>
+        <v>0.1088910876027711</v>
       </c>
       <c r="E7">
-        <v>0.2224074270545007</v>
+        <v>0.08427213793337884</v>
       </c>
       <c r="F7">
-        <v>1.246899582874619</v>
+        <v>0.5361757337185367</v>
       </c>
       <c r="G7">
-        <v>0.6273928201493888</v>
+        <v>0.2974019012671647</v>
       </c>
       <c r="H7">
-        <v>0.7616760335593611</v>
+        <v>0.2913561819168393</v>
       </c>
       <c r="I7">
-        <v>1.048755332976883</v>
+        <v>0.4294164513963423</v>
       </c>
       <c r="J7">
-        <v>0.261698507154512</v>
+        <v>0.1094611174134473</v>
       </c>
       <c r="K7">
-        <v>0.3405855570107974</v>
+        <v>1.125927320873956</v>
       </c>
       <c r="L7">
-        <v>0.1716173484264658</v>
+        <v>0.251097733890532</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.765067064379963</v>
+        <v>1.187810640320606</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6413983449638749</v>
+        <v>0.8326481562724268</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2481521829893509</v>
+        <v>0.1161396165435278</v>
       </c>
       <c r="E8">
-        <v>0.220335313003698</v>
+        <v>0.08220770911004038</v>
       </c>
       <c r="F8">
-        <v>1.236132357099066</v>
+        <v>0.5411098162398886</v>
       </c>
       <c r="G8">
-        <v>0.6209949646997828</v>
+        <v>0.3010137448127352</v>
       </c>
       <c r="H8">
-        <v>0.753958888976527</v>
+        <v>0.2858472173281683</v>
       </c>
       <c r="I8">
-        <v>1.032622482899679</v>
+        <v>0.4033096769040245</v>
       </c>
       <c r="J8">
-        <v>0.2588757843971425</v>
+        <v>0.1046984659748446</v>
       </c>
       <c r="K8">
-        <v>0.4099444839504542</v>
+        <v>1.337734571949113</v>
       </c>
       <c r="L8">
-        <v>0.1865249686627664</v>
+        <v>0.3026970458829084</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.735664813792283</v>
+        <v>1.184372080160657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7193309803729449</v>
+        <v>1.103969296974896</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2495168647651411</v>
+        <v>0.1312059897134432</v>
       </c>
       <c r="E9">
-        <v>0.2168311633227749</v>
+        <v>0.07893484457532729</v>
       </c>
       <c r="F9">
-        <v>1.219853501503373</v>
+        <v>0.5591775329184188</v>
       </c>
       <c r="G9">
-        <v>0.6115213127661718</v>
+        <v>0.314248589114591</v>
       </c>
       <c r="H9">
-        <v>0.7412131466291711</v>
+        <v>0.2788930340516131</v>
       </c>
       <c r="I9">
-        <v>1.004615871092394</v>
+        <v>0.3584216905321647</v>
       </c>
       <c r="J9">
-        <v>0.2539344891214366</v>
+        <v>0.09623122674774504</v>
       </c>
       <c r="K9">
-        <v>0.5447811583243833</v>
+        <v>1.75208325226987</v>
       </c>
       <c r="L9">
-        <v>0.2160148064047007</v>
+        <v>0.4043372384177673</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.68945238869415</v>
+        <v>1.19866130764521</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7772198421080816</v>
+        <v>1.304676075396657</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2509172165169105</v>
+        <v>0.1428466537509365</v>
       </c>
       <c r="E10">
-        <v>0.2145956051178679</v>
+        <v>0.07702457132634777</v>
       </c>
       <c r="F10">
-        <v>1.210834499383687</v>
+        <v>0.5781558989773714</v>
       </c>
       <c r="G10">
-        <v>0.6064352264416044</v>
+        <v>0.328236130606065</v>
       </c>
       <c r="H10">
-        <v>0.733299869042348</v>
+        <v>0.2763530617811298</v>
       </c>
       <c r="I10">
-        <v>0.9862482508135724</v>
+        <v>0.3295807911563458</v>
       </c>
       <c r="J10">
-        <v>0.2506642748290474</v>
+        <v>0.09055737038599576</v>
       </c>
       <c r="K10">
-        <v>0.643089032554002</v>
+        <v>2.056509527806185</v>
       </c>
       <c r="L10">
-        <v>0.2378275139620882</v>
+        <v>0.4794895556986773</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.662470788011561</v>
+        <v>1.223537533521991</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.803686011692605</v>
+        <v>1.396397634983629</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2516398139310354</v>
+        <v>0.1482785054790838</v>
       </c>
       <c r="E11">
-        <v>0.213651765584844</v>
+        <v>0.07626781672656691</v>
       </c>
       <c r="F11">
-        <v>1.207368740093116</v>
+        <v>0.5881655769922673</v>
       </c>
       <c r="G11">
-        <v>0.6045286680850523</v>
+        <v>0.3356454501453001</v>
       </c>
       <c r="H11">
-        <v>0.7300140469954925</v>
+        <v>0.2758076768386672</v>
       </c>
       <c r="I11">
-        <v>0.978371102579402</v>
+        <v>0.3174268996366081</v>
       </c>
       <c r="J11">
-        <v>0.2492543474571168</v>
+        <v>0.08809845801660993</v>
       </c>
       <c r="K11">
-        <v>0.6876397050553749</v>
+        <v>2.195150758701175</v>
       </c>
       <c r="L11">
-        <v>0.2477806022719875</v>
+        <v>0.5138297866386807</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.651708446423342</v>
+        <v>1.238340690485984</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8137264304077974</v>
+        <v>1.431200525937015</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2519256730413133</v>
+        <v>0.1503560670921615</v>
       </c>
       <c r="E12">
-        <v>0.2133048408263836</v>
+        <v>0.075997825988388</v>
       </c>
       <c r="F12">
-        <v>1.2061478272418</v>
+        <v>0.5921659950431106</v>
       </c>
       <c r="G12">
-        <v>0.6038652633718726</v>
+        <v>0.3386122443332056</v>
       </c>
       <c r="H12">
-        <v>0.728814866977217</v>
+        <v>0.2756935142380854</v>
       </c>
       <c r="I12">
-        <v>0.9754569715399963</v>
+        <v>0.3129694877814213</v>
       </c>
       <c r="J12">
-        <v>0.2487315884625394</v>
+        <v>0.08718521194690576</v>
       </c>
       <c r="K12">
-        <v>0.7044845654399978</v>
+        <v>2.247685743317788</v>
       </c>
       <c r="L12">
-        <v>0.2515537380197088</v>
+        <v>0.5268596579188625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.647850296510427</v>
+        <v>1.244479895740113</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8115632468017395</v>
+        <v>1.423701829754236</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2518635655996917</v>
+        <v>0.1499076924191627</v>
       </c>
       <c r="E13">
-        <v>0.2133790913354954</v>
+        <v>0.07605522895294392</v>
       </c>
       <c r="F13">
-        <v>1.206406705152638</v>
+        <v>0.5912948954543751</v>
       </c>
       <c r="G13">
-        <v>0.6040055342820452</v>
+        <v>0.3379659542231366</v>
       </c>
       <c r="H13">
-        <v>0.7290711274166597</v>
+        <v>0.2757139165028804</v>
       </c>
       <c r="I13">
-        <v>0.9760815233027937</v>
+        <v>0.3139229215221278</v>
       </c>
       <c r="J13">
-        <v>0.2488436784609751</v>
+        <v>0.08738109479873646</v>
       </c>
       <c r="K13">
-        <v>0.7008578748136358</v>
+        <v>2.236369655134723</v>
       </c>
       <c r="L13">
-        <v>0.2507409466075217</v>
+        <v>0.5240522209457339</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.648671554085723</v>
+        <v>1.243133444460057</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8045116814826656</v>
+        <v>1.39925943063912</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2516630871264312</v>
+        <v>0.1484490081090684</v>
       </c>
       <c r="E14">
-        <v>0.2136230138699631</v>
+        <v>0.07624526965290102</v>
       </c>
       <c r="F14">
-        <v>1.207266461790461</v>
+        <v>0.5884904141149647</v>
       </c>
       <c r="G14">
-        <v>0.6044729154701258</v>
+        <v>0.3358862396001996</v>
       </c>
       <c r="H14">
-        <v>0.7299144864089371</v>
+        <v>0.275796405966922</v>
       </c>
       <c r="I14">
-        <v>0.978129977019357</v>
+        <v>0.3170572435078451</v>
       </c>
       <c r="J14">
-        <v>0.2492111164396476</v>
+        <v>0.08802296424134354</v>
       </c>
       <c r="K14">
-        <v>0.6890260592011828</v>
+        <v>2.199472078393399</v>
       </c>
       <c r="L14">
-        <v>0.2480909393431148</v>
+        <v>0.5149012178339376</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.651386679186544</v>
+        <v>1.238834881913789</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8001947488686767</v>
+        <v>1.384297159962017</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2515418783032004</v>
+        <v>0.1475582405055889</v>
       </c>
       <c r="E15">
-        <v>0.2137737883016229</v>
+        <v>0.0763638470120398</v>
       </c>
       <c r="F15">
-        <v>1.207804999649682</v>
+        <v>0.5868003024248196</v>
       </c>
       <c r="G15">
-        <v>0.6047668278362224</v>
+        <v>0.3346336522135687</v>
       </c>
       <c r="H15">
-        <v>0.730436938385246</v>
+        <v>0.2758591038978579</v>
       </c>
       <c r="I15">
-        <v>0.979393670019121</v>
+        <v>0.318996176461841</v>
       </c>
       <c r="J15">
-        <v>0.2494376341300166</v>
+        <v>0.08841846760740149</v>
       </c>
       <c r="K15">
-        <v>0.6817753767460033</v>
+        <v>2.176876122210132</v>
       </c>
       <c r="L15">
-        <v>0.2464682621116197</v>
+        <v>0.5092994685895889</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.653078070499447</v>
+        <v>1.23627236247134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7754928115406585</v>
+        <v>1.298691099939077</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2508717083226912</v>
+        <v>0.1424945008201064</v>
       </c>
       <c r="E16">
-        <v>0.2146587562917013</v>
+        <v>0.07707632236642148</v>
       </c>
       <c r="F16">
-        <v>1.211073804262234</v>
+        <v>0.5775304529896843</v>
       </c>
       <c r="G16">
-        <v>0.6065680189618874</v>
+        <v>0.3277738594930639</v>
       </c>
       <c r="H16">
-        <v>0.7335209180519726</v>
+        <v>0.2764013700416115</v>
       </c>
       <c r="I16">
-        <v>0.9867726657520564</v>
+        <v>0.3303950282587049</v>
       </c>
       <c r="J16">
-        <v>0.2507579785026652</v>
+        <v>0.09072055159290088</v>
       </c>
       <c r="K16">
-        <v>0.6401740286704865</v>
+        <v>2.047453154418548</v>
       </c>
       <c r="L16">
-        <v>0.2371776460446426</v>
+        <v>0.4772487533266059</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.663204546256452</v>
+        <v>1.222642983021473</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7603723000549678</v>
+        <v>1.24628856062094</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2504824420212799</v>
+        <v>0.1394237150637281</v>
       </c>
       <c r="E17">
-        <v>0.2152203645766022</v>
+        <v>0.07754245390733061</v>
       </c>
       <c r="F17">
-        <v>1.213242191250274</v>
+        <v>0.572204571978105</v>
       </c>
       <c r="G17">
-        <v>0.6077772833072217</v>
+        <v>0.32384092323651</v>
       </c>
       <c r="H17">
-        <v>0.735493212524986</v>
+        <v>0.2768934969035683</v>
       </c>
       <c r="I17">
-        <v>0.9914219526037833</v>
+        <v>0.3376395010120188</v>
       </c>
       <c r="J17">
-        <v>0.2515878526914826</v>
+        <v>0.09216431873006103</v>
       </c>
       <c r="K17">
-        <v>0.6146086367992041</v>
+        <v>1.968104691611046</v>
       </c>
       <c r="L17">
-        <v>0.2314857558075403</v>
+        <v>0.4576286148404733</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.669803951523647</v>
+        <v>1.215197156630509</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7516878738032915</v>
+        <v>1.216186831478609</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2502666052751934</v>
+        <v>0.1376702601477717</v>
       </c>
       <c r="E18">
-        <v>0.2155502715949265</v>
+        <v>0.07782109758847611</v>
       </c>
       <c r="F18">
-        <v>1.214549356948829</v>
+        <v>0.569270050375323</v>
       </c>
       <c r="G18">
-        <v>0.6085111396547163</v>
+        <v>0.3216766167735585</v>
       </c>
       <c r="H18">
-        <v>0.7366571797565697</v>
+        <v>0.2772336835598779</v>
       </c>
       <c r="I18">
-        <v>0.9941411272115062</v>
+        <v>0.3418968688269075</v>
       </c>
       <c r="J18">
-        <v>0.2520724902233324</v>
+        <v>0.09300621273962068</v>
       </c>
       <c r="K18">
-        <v>0.599888154444443</v>
+        <v>1.922479479474646</v>
       </c>
       <c r="L18">
-        <v>0.2282148054218851</v>
+        <v>0.446357784423455</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.673742049718427</v>
+        <v>1.211240676160827</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7487496450218032</v>
+        <v>1.206001287269572</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2501949131609038</v>
+        <v>0.1370787353508192</v>
       </c>
       <c r="E19">
-        <v>0.2156631557903417</v>
+        <v>0.07791723834991338</v>
       </c>
       <c r="F19">
-        <v>1.215002243473592</v>
+        <v>0.568298234470916</v>
       </c>
       <c r="G19">
-        <v>0.6087661914937499</v>
+        <v>0.3209603070475637</v>
       </c>
       <c r="H19">
-        <v>0.7370563570579804</v>
+        <v>0.277358539945773</v>
       </c>
       <c r="I19">
-        <v>0.9950695270558292</v>
+        <v>0.3433537100261805</v>
       </c>
       <c r="J19">
-        <v>0.2522378374221208</v>
+        <v>0.09329322515860139</v>
       </c>
       <c r="K19">
-        <v>0.5949013457017713</v>
+        <v>1.907033603919842</v>
       </c>
       <c r="L19">
-        <v>0.2271078191520672</v>
+        <v>0.4425439896132985</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.675099863444387</v>
+        <v>1.209956149111562</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7619806169536787</v>
+        <v>1.251862814088241</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2505230465775128</v>
+        <v>0.1397492756072012</v>
       </c>
       <c r="E20">
-        <v>0.21515986807551</v>
+        <v>0.07749173975876467</v>
       </c>
       <c r="F20">
-        <v>1.213005157197912</v>
+        <v>0.5727581072916195</v>
       </c>
       <c r="G20">
-        <v>0.6076445889603335</v>
+        <v>0.324249392890664</v>
       </c>
       <c r="H20">
-        <v>0.7352801999412719</v>
+        <v>0.2768351638886699</v>
       </c>
       <c r="I20">
-        <v>0.9909223679891106</v>
+        <v>0.3368589009830369</v>
       </c>
       <c r="J20">
-        <v>0.2514987541839508</v>
+        <v>0.09200943708422005</v>
       </c>
       <c r="K20">
-        <v>0.617331774330637</v>
+        <v>1.976549944918673</v>
       </c>
       <c r="L20">
-        <v>0.2320913715778801</v>
+        <v>0.4597157193269226</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.669086707078165</v>
+        <v>1.21595579407682</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8065824077760055</v>
+        <v>1.406436777681137</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2517216412921073</v>
+        <v>0.1488768905942379</v>
       </c>
       <c r="E21">
-        <v>0.213551083529488</v>
+        <v>0.07618899665519052</v>
       </c>
       <c r="F21">
-        <v>1.207011448151711</v>
+        <v>0.5893083601595208</v>
       </c>
       <c r="G21">
-        <v>0.6043340446000016</v>
+        <v>0.3364926439514306</v>
       </c>
       <c r="H21">
-        <v>0.7296655481810177</v>
+        <v>0.2757696317665861</v>
       </c>
       <c r="I21">
-        <v>0.9775264301234223</v>
+        <v>0.3161326315977924</v>
       </c>
       <c r="J21">
-        <v>0.2491028885884727</v>
+        <v>0.08783394341370868</v>
       </c>
       <c r="K21">
-        <v>0.692502051053367</v>
+        <v>2.210308752292576</v>
       </c>
       <c r="L21">
-        <v>0.2488692009735161</v>
+        <v>0.5175883515040027</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.650583283812182</v>
+        <v>1.240082727025793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8358383069926276</v>
+        <v>1.507872343107749</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2525762253870028</v>
+        <v>0.1549631158697053</v>
       </c>
       <c r="E22">
-        <v>0.2125607615525169</v>
+        <v>0.07543441217247349</v>
       </c>
       <c r="F22">
-        <v>1.20362746433716</v>
+        <v>0.6013548826122559</v>
       </c>
       <c r="G22">
-        <v>0.6025117990455016</v>
+        <v>0.3454383890912709</v>
       </c>
       <c r="H22">
-        <v>0.7262588375469505</v>
+        <v>0.2756139627562817</v>
       </c>
       <c r="I22">
-        <v>0.9691722709735533</v>
+        <v>0.3034350751712189</v>
       </c>
       <c r="J22">
-        <v>0.24760203079161</v>
+        <v>0.08520945921211992</v>
       </c>
       <c r="K22">
-        <v>0.7414809788035086</v>
+        <v>2.363291349159965</v>
       </c>
       <c r="L22">
-        <v>0.2598583643448364</v>
+        <v>0.5555648781992204</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.63975687356799</v>
+        <v>1.258977470128741</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8202144302092904</v>
+        <v>1.453693159950831</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2521136256087146</v>
+        <v>0.1517033795111473</v>
       </c>
       <c r="E23">
-        <v>0.2130837327961466</v>
+        <v>0.07582813847570868</v>
       </c>
       <c r="F23">
-        <v>1.205384803901453</v>
+        <v>0.5948087148697283</v>
       </c>
       <c r="G23">
-        <v>0.6034531215312882</v>
+        <v>0.3405738287539748</v>
       </c>
       <c r="H23">
-        <v>0.7280530372785563</v>
+        <v>0.2756459644793807</v>
       </c>
       <c r="I23">
-        <v>0.9735943692660634</v>
+        <v>0.310132282902428</v>
       </c>
       <c r="J23">
-        <v>0.2483971293603705</v>
+        <v>0.08660052798935103</v>
       </c>
       <c r="K23">
-        <v>0.7153540025617815</v>
+        <v>2.281618420148106</v>
       </c>
       <c r="L23">
-        <v>0.2539911387278835</v>
+        <v>0.5352806730979438</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.64541925742688</v>
+        <v>1.248595786406355</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7612534701715958</v>
+        <v>1.249342616361389</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2505046644649411</v>
+        <v>0.1396020524444737</v>
       </c>
       <c r="E24">
-        <v>0.2151871966412617</v>
+        <v>0.07751463445938356</v>
       </c>
       <c r="F24">
-        <v>1.21311213173616</v>
+        <v>0.5725074580626668</v>
       </c>
       <c r="G24">
-        <v>0.607704459734407</v>
+        <v>0.3240644230710359</v>
       </c>
       <c r="H24">
-        <v>0.7353764092633952</v>
+        <v>0.2768613582513595</v>
       </c>
       <c r="I24">
-        <v>0.991148086166266</v>
+        <v>0.3372115228336288</v>
       </c>
       <c r="J24">
-        <v>0.2515390121568286</v>
+        <v>0.09207942218114137</v>
       </c>
       <c r="K24">
-        <v>0.6161007141633661</v>
+        <v>1.972731867745551</v>
       </c>
       <c r="L24">
-        <v>0.2318175683299728</v>
+        <v>0.4587721115005507</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.669410524700893</v>
+        <v>1.215611806611506</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.698134976763896</v>
+        <v>1.030367296265865</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2490775518988286</v>
+        <v>0.1270337099415855</v>
       </c>
       <c r="E25">
-        <v>0.217719463055813</v>
+        <v>0.07973505090050281</v>
       </c>
       <c r="F25">
-        <v>1.223740381939351</v>
+        <v>0.5533324711792886</v>
       </c>
       <c r="G25">
-        <v>0.6137551337574649</v>
+        <v>0.3099582564886276</v>
       </c>
       <c r="H25">
-        <v>0.7444060692869812</v>
+        <v>0.2803400041300179</v>
       </c>
       <c r="I25">
-        <v>1.011804217279927</v>
+        <v>0.3698604451327885</v>
       </c>
       <c r="J25">
-        <v>0.2552078498623044</v>
+        <v>0.09842691951621252</v>
       </c>
       <c r="K25">
-        <v>0.5084342821591861</v>
+        <v>1.640037395654787</v>
       </c>
       <c r="L25">
-        <v>0.208010603399913</v>
+        <v>0.3767723236235554</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.700729463117085</v>
+        <v>1.192388483918535</v>
       </c>
     </row>
   </sheetData>
